--- a/other/media composition.xlsx
+++ b/other/media composition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Màster Bioestadística i Bioinfo\Análisis de datos Ómicos\PECS\ADO_PEC1_Marc_Garcia\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{889F0109-B61A-4F85-AD1B-8EC14FED989F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042105BD-5629-4C9A-8D5F-F329A372C2A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F6A7A92-4652-434A-8F1A-C3B0AABB3BAA}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{2F6A7A92-4652-434A-8F1A-C3B0AABB3BAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>Fructose (g/kg)</t>
   </si>
   <si>
-    <t>Ploysaccharide (g/kg)</t>
-  </si>
-  <si>
     <t>majority</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Kcal/g</t>
+  </si>
+  <si>
+    <t>Polysaccharide (g/kg)</t>
   </si>
 </sst>
 </file>
@@ -476,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10CFE20-1C50-43B4-90F4-0638B09B4BBB}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +665,7 @@
         <v>134.4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -752,15 +752,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
         <v>577</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1">
         <v>4</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>28</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <v>124</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <v>3.6</v>
